--- a/Data/input.xlsx
+++ b/Data/input.xlsx
@@ -4,44 +4,55 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16365" windowHeight="4065"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16365" windowHeight="4065" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="ValidLogin" sheetId="1" r:id="rId1"/>
+    <sheet name="InvalidLogin" sheetId="2" r:id="rId2"/>
+    <sheet name="CheckProductVersion" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1:P12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>a123</t>
-  </si>
-  <si>
     <t>manager</t>
   </si>
   <si>
-    <t>m123</t>
-  </si>
-  <si>
-    <t>employee</t>
-  </si>
-  <si>
-    <t>e123</t>
+    <t>USerName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Home Page Title</t>
+  </si>
+  <si>
+    <t>actiTIME-Enter Time- Track</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>actiTIME 2017.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -49,13 +60,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,8 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,36 +393,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -403,26 +470,44 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>